--- a/biology/Histoire de la zoologie et de la botanique/Władysław_Taczanowski/Władysław_Taczanowski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Władysław_Taczanowski/Władysław_Taczanowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Taczanowski</t>
+          <t>Władysław_Taczanowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ladislaus Taczanowski
 Władysław Taczanowski armoiries Jastrzębiec (parfois orthographié Ladislaus Taczanowski sur certaines publications), né le 1er mars 1819 à Jabłonna et mort le 17 janvier 1890 à Varsovie, est un zoologiste polonais.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Taczanowski</t>
+          <t>Władysław_Taczanowski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il appartient à une ancienne famille de la noblesse polonaise de la région de Poznań. Il étudie à Paris et travaille pour les muséums de Vienne, Berlin, Paris et Londres. Il dirige le département de zoologie du muséum de l’université de Varsovie à partir de 1862 où il succède à Feliks Paweł Jarocki (1790-1865).
 De 1866 à 1867, Taczanowski fait une expédition scientifique en Algérie avec Antoni Stanislaw Waga (1799-1890). Il est l’auteur notamment de Birds of Poland (1882) et Ornithology of Peru (1884-1886).
 Le grèbe de Taczanowski, Podiceps taczanowskii (Berlepsch &amp; Stolzmann, 1894) et le paca de montagne, Agouti taczanowskii (Stolzmann, 1865) lui ont été dédiées.
-Il a reçu le titre de docteur honoris causa de l'université Jagellonne de Cracovie en 1887[1].
+Il a reçu le titre de docteur honoris causa de l'université Jagellonne de Cracovie en 1887.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Taczanowski</t>
+          <t>Władysław_Taczanowski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Araneides de la Guyane française. Horae Societatis entomologicae Rossicae (1871)
 Les Araneides de la Guyane française. Horae Societatis entomologicae Rossicae (1873)
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Taczanowski</t>
+          <t>Władysław_Taczanowski</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Merle à œil clair (Turdus leucops)
 Pipit de la Puna (Anthus brevirostris)</t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Taczanowski</t>
+          <t>Władysław_Taczanowski</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pipromorphe inca (Leptopogon taczanowskii) Hellmayr, 1917</t>
         </is>
